--- a/Reports/MarketBeatRank/TanzyInvested/ABB.xlsx
+++ b/Reports/MarketBeatRank/TanzyInvested/ABB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="40">
   <si>
     <t>Jun_10</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>6/11/2018,Reiterates,Neutral,</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>Jun_17</t>
   </si>
 </sst>
 </file>
@@ -176,14 +182,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -197,6 +211,12 @@
       <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -208,6 +228,12 @@
       <c r="C3" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -219,6 +245,12 @@
       <c r="C4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -230,6 +262,12 @@
       <c r="C5" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -239,6 +277,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>28</v>
       </c>
     </row>
@@ -250,6 +294,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>29</v>
       </c>
     </row>
@@ -263,6 +313,12 @@
       <c r="C8" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -274,6 +330,12 @@
       <c r="C9" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -285,6 +347,12 @@
       <c r="C10" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -296,6 +364,12 @@
       <c r="C11" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -307,6 +381,12 @@
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -316,6 +396,12 @@
         <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -329,6 +415,12 @@
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -340,6 +432,12 @@
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -351,15 +449,27 @@
       <c r="C16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="E17" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -371,6 +481,12 @@
         <v>2</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>32</v>
       </c>
     </row>
@@ -382,6 +498,12 @@
         <v>2</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -393,6 +515,12 @@
         <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>34</v>
       </c>
     </row>
@@ -406,6 +534,12 @@
       <c r="C21" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -417,6 +551,12 @@
       <c r="C22" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -428,6 +568,12 @@
       <c r="C23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -439,6 +585,12 @@
       <c r="C24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -450,6 +602,12 @@
       <c r="C25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -461,6 +619,12 @@
       <c r="C26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -470,6 +634,12 @@
         <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Reports/MarketBeatRank/TanzyInvested/ABB.xlsx
+++ b/Reports/MarketBeatRank/TanzyInvested/ABB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="44">
   <si>
     <t>Jun_10</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>Jun_17</t>
+  </si>
+  <si>
+    <t>Jun_26</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>Evercore ISI</t>
+  </si>
+  <si>
+    <t>Jun_27</t>
   </si>
 </sst>
 </file>
@@ -168,8 +180,92 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="85">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -184,20 +280,32 @@
   <cols>
     <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -217,6 +325,15 @@
       <c r="E2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -234,6 +351,15 @@
       <c r="E3" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -251,6 +377,15 @@
       <c r="E4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -268,6 +403,15 @@
       <c r="E5" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -283,6 +427,15 @@
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>28</v>
       </c>
     </row>
@@ -300,6 +453,15 @@
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>29</v>
       </c>
     </row>
@@ -319,6 +481,15 @@
       <c r="E8" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -336,6 +507,15 @@
       <c r="E9" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -353,6 +533,15 @@
       <c r="E10" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -370,6 +559,15 @@
       <c r="E11" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -387,6 +585,15 @@
       <c r="E12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -402,6 +609,15 @@
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -421,6 +637,15 @@
       <c r="E14" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -438,6 +663,15 @@
       <c r="E15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -455,6 +689,15 @@
       <c r="E16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -467,9 +710,18 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="H17" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -487,6 +739,15 @@
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>32</v>
       </c>
     </row>
@@ -504,6 +765,15 @@
         <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -521,6 +791,15 @@
         <v>2</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="0" t="s">
         <v>34</v>
       </c>
     </row>
@@ -540,6 +819,15 @@
       <c r="E21" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -557,6 +845,15 @@
       <c r="E22" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -574,6 +871,15 @@
       <c r="E23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -591,6 +897,15 @@
       <c r="E24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -608,6 +923,15 @@
       <c r="E25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -625,6 +949,15 @@
       <c r="E26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -640,6 +973,43 @@
         <v>2</v>
       </c>
       <c r="E27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Reports/MarketBeatRank/TanzyInvested/ABB.xlsx
+++ b/Reports/MarketBeatRank/TanzyInvested/ABB.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/MarketBeatRank/TanzyInvested/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{1E629B96-327E-AF4E-BC42-78406F66B10B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowHeight="19800" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="2018" r:id="rId3" sheetId="1"/>
+    <sheet name="2018" r:id="rId1" sheetId="1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50694" uniqueCount="96">
   <si>
     <t>Jun_10</t>
   </si>
@@ -119,53 +127,294 @@
     <t>1/9/2018,Downgrade,Buy ➝ Neutral,</t>
   </si>
   <si>
+    <t>Jun_13</t>
+  </si>
+  <si>
+    <t>6/11/2018,Reiterates,Neutral,</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>Evercore ISI</t>
+  </si>
+  <si>
+    <t>Jul_12</t>
+  </si>
+  <si>
+    <t>7/11/2018,Upgrades,Underperform -&gt; Hold,$23.00</t>
+  </si>
+  <si>
+    <t>7/9/2018,Reiterates,Neutral,</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Jun_13</t>
-  </si>
-  <si>
-    <t>6/11/2018,Reiterates,Neutral,</t>
-  </si>
-  <si>
-    <t>Jun_15</t>
-  </si>
-  <si>
-    <t>Jun_17</t>
-  </si>
-  <si>
-    <t>Jun_26</t>
-  </si>
-  <si>
-    <t>Benchmark</t>
-  </si>
-  <si>
-    <t>Evercore ISI</t>
-  </si>
-  <si>
-    <t>Jun_27</t>
+    <t>Jul_20</t>
+  </si>
+  <si>
+    <t>Jul_24</t>
+  </si>
+  <si>
+    <t>Jul_29</t>
+  </si>
+  <si>
+    <t>Aug_12</t>
+  </si>
+  <si>
+    <t>Aug_14</t>
+  </si>
+  <si>
+    <t>Aug_19</t>
+  </si>
+  <si>
+    <t>Aug_21</t>
+  </si>
+  <si>
+    <t>Aug_26</t>
+  </si>
+  <si>
+    <t>8/23/2018,Reiterates,Neutral,</t>
+  </si>
+  <si>
+    <t>Sep_02</t>
+  </si>
+  <si>
+    <t>8/29/2018,Upgrades,Sell -&gt; Hold,</t>
+  </si>
+  <si>
+    <t>Sep_11</t>
+  </si>
+  <si>
+    <t>9/4/2018,Upgrades,Neutral -&gt; Buy,</t>
+  </si>
+  <si>
+    <t>Sep_24</t>
+  </si>
+  <si>
+    <t>Oct_01</t>
+  </si>
+  <si>
+    <t>10/1/2018,Downgrades,Buy -&gt; Hold,</t>
+  </si>
+  <si>
+    <t>Oct_06</t>
+  </si>
+  <si>
+    <t>Oct_22</t>
+  </si>
+  <si>
+    <t>10/18/2018,Reiterates,Hold,</t>
+  </si>
+  <si>
+    <t>Nov_04</t>
+  </si>
+  <si>
+    <t>10/25/2018,Reiterates,Hold,</t>
+  </si>
+  <si>
+    <t>10/29/2018,Reiterates,Hold,</t>
+  </si>
+  <si>
+    <t>Nov_11</t>
+  </si>
+  <si>
+    <t>Nov_19</t>
+  </si>
+  <si>
+    <t>Nov_24</t>
+  </si>
+  <si>
+    <t>Dec_02</t>
+  </si>
+  <si>
+    <t>Dec_09</t>
+  </si>
+  <si>
+    <t>12/5/2018,Reiterates,Hold,</t>
+  </si>
+  <si>
+    <t>12/9/2018,Downgrades,Neutral -&gt; Underweight,$20.36</t>
+  </si>
+  <si>
+    <t>Dec_16</t>
+  </si>
+  <si>
+    <t>Dec_30</t>
+  </si>
+  <si>
+    <t>12/17/2018,Reiterates,Hold,</t>
+  </si>
+  <si>
+    <t>12/17/2018,Reiterates,Sell,</t>
+  </si>
+  <si>
+    <t>Jan_07</t>
+  </si>
+  <si>
+    <t>Jan_13</t>
+  </si>
+  <si>
+    <t>1/8/2019,Upgrades,Neutral -&gt; Buy,</t>
+  </si>
+  <si>
+    <t>Jan_21</t>
+  </si>
+  <si>
+    <t>1/15/2019,Initiates,Sector Perform,</t>
+  </si>
+  <si>
+    <t>Jan_27</t>
+  </si>
+  <si>
+    <t>Jan_31</t>
+  </si>
+  <si>
+    <t>Feb_03</t>
+  </si>
+  <si>
+    <t>Feb_07</t>
+  </si>
+  <si>
+    <t>Feb_10</t>
+  </si>
+  <si>
+    <t>Feb_13</t>
+  </si>
+  <si>
+    <t>Feb_17</t>
+  </si>
+  <si>
+    <t>Feb_24</t>
+  </si>
+  <si>
+    <t>2/22/2019,Upgrades,Sell -&gt; Hold,</t>
+  </si>
+  <si>
+    <t>Feb_28</t>
+  </si>
+  <si>
+    <t>Mar_03</t>
+  </si>
+  <si>
+    <t>2/28/2019,Reiterates,Hold,</t>
+  </si>
+  <si>
+    <t>2/28/2019,Reiterates,Sell,</t>
+  </si>
+  <si>
+    <t>Mar_06</t>
+  </si>
+  <si>
+    <t>Mar_10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,7 +429,1016 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="1094">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -267,49 +1525,501 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="AO1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="0" t="s">
+      <c r="AP1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -334,8 +2044,113 @@
       <c r="H2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -360,8 +2175,113 @@
       <c r="H3" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -386,8 +2306,113 @@
       <c r="H4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -403,8 +2428,8 @@
       <c r="E5" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>2</v>
+      <c r="F5" s="957" t="s">
+        <v>89</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>2</v>
@@ -412,8 +2437,113 @@
       <c r="H5" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="313" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -436,10 +2566,115 @@
         <v>2</v>
       </c>
       <c r="H6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -462,10 +2697,115 @@
         <v>2</v>
       </c>
       <c r="H7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -490,8 +2830,113 @@
       <c r="H8" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -516,8 +2961,113 @@
       <c r="H9" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ9" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -542,8 +3092,113 @@
       <c r="H10" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -568,8 +3223,113 @@
       <c r="H11" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="235" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ11" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -594,8 +3354,113 @@
       <c r="H12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -606,7 +3471,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>2</v>
@@ -618,10 +3483,115 @@
         <v>2</v>
       </c>
       <c r="H13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -646,8 +3616,113 @@
       <c r="H14" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ14" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -672,8 +3747,113 @@
       <c r="H15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -698,8 +3878,113 @@
       <c r="H16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -710,7 +3995,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>2</v>
@@ -719,13 +4004,118 @@
         <v>2</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="H17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" s="633" t="s">
+        <v>71</v>
+      </c>
+      <c r="S17" s="605" t="s">
+        <v>71</v>
+      </c>
+      <c r="T17" s="577" t="s">
+        <v>71</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ17" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -736,7 +4126,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>2</v>
@@ -748,10 +4138,115 @@
         <v>2</v>
       </c>
       <c r="H18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ18" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -774,10 +4269,115 @@
         <v>2</v>
       </c>
       <c r="H19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="271" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ19" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -800,10 +4400,115 @@
         <v>2</v>
       </c>
       <c r="H20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="720" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ20" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -828,8 +4533,113 @@
       <c r="H21" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ21" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -854,8 +4664,113 @@
       <c r="H22" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ22" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -880,8 +4795,113 @@
       <c r="H23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -906,8 +4926,113 @@
       <c r="H24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -932,8 +5057,113 @@
       <c r="H25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -958,8 +5188,113 @@
       <c r="H26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -984,10 +5319,115 @@
       <c r="H27" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ27" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -998,10 +5438,121 @@
       <c r="D28" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="E28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO28" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -1010,6 +5561,117 @@
         <v>2</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO29" s="0" t="s">
         <v>2</v>
       </c>
     </row>
